--- a/Лабораторная работа №1/Excel-тесты/Task two.xlsx
+++ b/Лабораторная работа №1/Excel-тесты/Task two.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" r:id="rId1"/>
-    <sheet name="Проверка достаточности тестов" sheetId="2" r:id="rId2"/>
+    <sheet name="Обхват разных входных данных" sheetId="2" r:id="rId2"/>
+    <sheet name="Проверка достаточности тестов" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>№ теста</t>
   </si>
@@ -112,6 +113,27 @@
   </si>
   <si>
     <t>x или y</t>
+  </si>
+  <si>
+    <t>Данные преобразованы к типу объекта</t>
+  </si>
+  <si>
+    <t>Обработка исключительной ситуации</t>
+  </si>
+  <si>
+    <t>Проверка ввода x</t>
+  </si>
+  <si>
+    <t>Проверка ввода y</t>
+  </si>
+  <si>
+    <t>Точка находится на границе фигуры</t>
+  </si>
+  <si>
+    <t>Точка находится вне фигуры</t>
+  </si>
+  <si>
+    <t>Точка находится внутри фигуры. Не на границе</t>
   </si>
 </sst>
 </file>
@@ -127,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +216,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -563,11 +597,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,6 +776,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,6 +857,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FF9999FF"/>
+      <color rgb="FF6666FF"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FFFF5050"/>
@@ -758,9 +867,6 @@
       <color rgb="FF333399"/>
       <color rgb="FF669900"/>
       <color rgb="FF663300"/>
-      <color rgb="FF666699"/>
-      <color rgb="FF008080"/>
-      <color rgb="FF6666FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1093,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1686,4 +1792,212 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9">
+        <v>6</v>
+      </c>
+      <c r="I2" s="9">
+        <v>7</v>
+      </c>
+      <c r="J2" s="9">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="65"/>
+      <c r="B4" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="62"/>
+      <c r="B6" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Лабораторная работа №1/Excel-тесты/Task two.xlsx
+++ b/Лабораторная работа №1/Excel-тесты/Task two.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" r:id="rId1"/>
-    <sheet name="Обхват разных входных данных" sheetId="2" r:id="rId2"/>
+    <sheet name="Black box" sheetId="2" r:id="rId2"/>
     <sheet name="Проверка достаточности тестов" sheetId="3" r:id="rId3"/>
+    <sheet name="White box" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>№ теста</t>
   </si>
@@ -48,9 +49,6 @@
   </si>
   <si>
     <t>Целое число</t>
-  </si>
-  <si>
-    <t>Char</t>
   </si>
   <si>
     <t>String</t>
@@ -112,9 +110,6 @@
     <t>Для объектов x и y класса Double</t>
   </si>
   <si>
-    <t>x или y</t>
-  </si>
-  <si>
     <t>Данные преобразованы к типу объекта</t>
   </si>
   <si>
@@ -134,6 +129,45 @@
   </si>
   <si>
     <t>Точка находится внутри фигуры. Не на границе</t>
+  </si>
+  <si>
+    <t>Выходные объекты классов</t>
+  </si>
+  <si>
+    <t>Классы входных данных</t>
+  </si>
+  <si>
+    <t>x - Double</t>
+  </si>
+  <si>
+    <t>y - Double</t>
+  </si>
+  <si>
+    <t>Данные преобразованы к типу объекта. isSuitableValue == True</t>
+  </si>
+  <si>
+    <t>Обработка исключительной ситуации. isSuitableValue == False</t>
+  </si>
+  <si>
+    <t>Проверка ввода x. Результат преобразования запишется в isSuitableValue</t>
+  </si>
+  <si>
+    <t>Проверка ввода y. Результат преобразования запишется в isSuitableValue</t>
+  </si>
+  <si>
+    <t>Вхождение точки в область</t>
+  </si>
+  <si>
+    <t>y &lt;= 0</t>
+  </si>
+  <si>
+    <t>y &gt;= -2</t>
+  </si>
+  <si>
+    <t>x &gt;= -7</t>
+  </si>
+  <si>
+    <t>x &lt;= 0</t>
   </si>
 </sst>
 </file>
@@ -149,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,12 +240,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -228,8 +256,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -434,51 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -544,7 +545,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -555,14 +556,16 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -575,13 +578,78 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -592,31 +660,49 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,103 +734,217 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,79 +959,55 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -857,6 +1033,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FF9999FF"/>
       <color rgb="FF6666FF"/>
@@ -866,7 +1043,6 @@
       <color rgb="FF0066CC"/>
       <color rgb="FF333399"/>
       <color rgb="FF669900"/>
-      <color rgb="FF663300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1199,55 +1375,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B8" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="27.26953125" style="21" customWidth="1"/>
+    <col min="3" max="4" width="27.26953125" style="16" customWidth="1"/>
     <col min="5" max="5" width="10.90625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="A2" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>13</v>
+      <c r="D3" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E13" si="0">IF(C3=D3,"Истина","Ложь")</f>
@@ -1260,13 +1436,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1278,14 +1454,14 @@
         <f t="shared" ref="A5:A13" si="1">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>13</v>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1297,14 +1473,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>13</v>
+      <c r="B6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1316,14 +1492,14 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>13</v>
+      <c r="B7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1335,14 +1511,14 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>19</v>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1354,14 +1530,14 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>19</v>
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1373,14 +1549,14 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>13</v>
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1393,13 +1569,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>23</v>
+      <c r="D11" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1412,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>23</v>
+      <c r="C12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1426,18 +1602,18 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25">
+      <c r="A13" s="19">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1445,15 +1621,15 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21"/>
+      <c r="B14" s="16"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21"/>
+      <c r="B15" s="16"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="21"/>
+      <c r="B16" s="16"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1506,289 +1682,372 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="19.08984375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="19.08984375" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="10">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="76">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="78">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="78">
         <f t="shared" ref="E2:M2" si="0">D2+1</f>
         <v>3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="78">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="78">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="78">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="78">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="78">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="78">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="78">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="80">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="81"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="68"/>
+      <c r="B5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="37"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="51"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="68"/>
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="52"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="69"/>
+      <c r="B7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="50"/>
-      <c r="B7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="40"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="50"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="74"/>
+      <c r="B9" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="51"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="74"/>
+      <c r="B10" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="52"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="75"/>
+      <c r="B11" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1798,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A4" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1810,27 +2069,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="10">
         <v>1</v>
       </c>
@@ -1866,30 +2125,30 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="B3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65"/>
-      <c r="B4" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="61"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="32"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1897,35 +2156,35 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="20"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="A5" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="62"/>
-      <c r="B6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="61"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="32"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1933,19 +2192,19 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="20"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1955,34 +2214,34 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="94"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1990,12 +2249,282 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="27.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="65"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20">
+        <v>8</v>
+      </c>
+      <c r="K2" s="20">
+        <v>9</v>
+      </c>
+      <c r="L2" s="20">
+        <v>10</v>
+      </c>
+      <c r="M2" s="57">
+        <v>11</v>
+      </c>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+    </row>
+    <row r="3" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+    </row>
+    <row r="4" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="69"/>
+      <c r="B4" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+    </row>
+    <row r="5" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+    </row>
+    <row r="6" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="75"/>
+      <c r="B6" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="102"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="38"/>
+      <c r="B8" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38"/>
+      <c r="B9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="38"/>
+      <c r="B10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38"/>
+      <c r="B11" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Лабораторная работа №1/Excel-тесты/Task two.xlsx
+++ b/Лабораторная работа №1/Excel-тесты/Task two.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" r:id="rId1"/>
-    <sheet name="Black box" sheetId="2" r:id="rId2"/>
-    <sheet name="Проверка достаточности тестов" sheetId="3" r:id="rId3"/>
-    <sheet name="White box" sheetId="4" r:id="rId4"/>
+    <sheet name="White box" sheetId="4" r:id="rId2"/>
+    <sheet name="Black box" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>№ теста</t>
   </si>
@@ -110,18 +109,6 @@
     <t>Для объектов x и y класса Double</t>
   </si>
   <si>
-    <t>Данные преобразованы к типу объекта</t>
-  </si>
-  <si>
-    <t>Обработка исключительной ситуации</t>
-  </si>
-  <si>
-    <t>Проверка ввода x</t>
-  </si>
-  <si>
-    <t>Проверка ввода y</t>
-  </si>
-  <si>
     <t>Точка находится на границе фигуры</t>
   </si>
   <si>
@@ -168,6 +155,15 @@
   </si>
   <si>
     <t>x &lt;= 0</t>
+  </si>
+  <si>
+    <t>внутри</t>
+  </si>
+  <si>
+    <t>на границе</t>
+  </si>
+  <si>
+    <t>вне фигуры</t>
   </si>
 </sst>
 </file>
@@ -183,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,12 +248,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9999FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCFF33"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -473,17 +463,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -618,17 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -642,11 +610,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -655,54 +625,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,24 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -767,141 +705,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -911,22 +900,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -945,69 +925,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1033,8 +950,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
       <color rgb="FF66CCFF"/>
-      <color rgb="FFFFCC99"/>
       <color rgb="FF9999FF"/>
       <color rgb="FF6666FF"/>
       <color rgb="FFFF9966"/>
@@ -1375,54 +1292,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="27.26953125" style="16" customWidth="1"/>
+    <col min="3" max="4" width="27.26953125" style="10" customWidth="1"/>
     <col min="5" max="5" width="10.90625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="str">
@@ -1454,13 +1371,13 @@
         <f t="shared" ref="A5:A13" si="1">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="str">
@@ -1473,13 +1390,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4" t="str">
@@ -1492,13 +1409,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="4" t="str">
@@ -1511,13 +1428,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="4" t="str">
@@ -1530,13 +1447,13 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="4" t="str">
@@ -1549,13 +1466,13 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="4" t="str">
@@ -1571,10 +1488,10 @@
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="4" t="str">
@@ -1590,10 +1507,10 @@
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="str">
@@ -1602,17 +1519,17 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="19">
+      <c r="A13" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="5" t="str">
@@ -1621,15 +1538,15 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
+      <c r="B14" s="10"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
+      <c r="B15" s="10"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
+      <c r="B16" s="10"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1674,145 +1591,462 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="27.26953125" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="1:20" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="43">
+        <v>1</v>
+      </c>
+      <c r="D2" s="45">
+        <v>2</v>
+      </c>
+      <c r="E2" s="45">
+        <v>3</v>
+      </c>
+      <c r="F2" s="45">
+        <v>4</v>
+      </c>
+      <c r="G2" s="45">
+        <v>5</v>
+      </c>
+      <c r="H2" s="45">
+        <v>6</v>
+      </c>
+      <c r="I2" s="45">
+        <v>7</v>
+      </c>
+      <c r="J2" s="45">
+        <v>8</v>
+      </c>
+      <c r="K2" s="45">
+        <v>9</v>
+      </c>
+      <c r="L2" s="45">
+        <v>10</v>
+      </c>
+      <c r="M2" s="47">
+        <v>11</v>
+      </c>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+    </row>
+    <row r="3" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+    </row>
+    <row r="4" spans="1:20" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="69"/>
+      <c r="B4" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+    </row>
+    <row r="5" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+    </row>
+    <row r="6" spans="1:20" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="71"/>
+      <c r="B6" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+    </row>
+    <row r="7" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="75"/>
+      <c r="B8" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="75"/>
+      <c r="B9" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="75"/>
+      <c r="B10" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="75"/>
+      <c r="B11" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="75"/>
+      <c r="B12" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:20" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="69"/>
+      <c r="B13" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A7:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.08984375" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="2" width="19.08984375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="72"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="76">
+      <c r="A2" s="66"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="84">
         <v>1</v>
       </c>
-      <c r="D2" s="78">
+      <c r="D2" s="86">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="86">
         <f t="shared" ref="E2:M2" si="0">D2+1</f>
         <v>3</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="86">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="78">
+      <c r="G2" s="86">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="78">
+      <c r="H2" s="86">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I2" s="78">
+      <c r="I2" s="86">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J2" s="78">
+      <c r="J2" s="86">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K2" s="78">
+      <c r="K2" s="86">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L2" s="78">
+      <c r="L2" s="86">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M2" s="80">
+      <c r="M2" s="88">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="81"/>
+      <c r="A3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="50"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="68"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="51"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="68"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="79"/>
+      <c r="B6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1822,67 +2056,67 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="69"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="50"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="74"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="51"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1892,144 +2126,156 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="52"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="75"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
+      <c r="A14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2051,482 +2297,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9">
-        <v>3</v>
-      </c>
-      <c r="F2" s="9">
-        <v>4</v>
-      </c>
-      <c r="G2" s="9">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9">
-        <v>6</v>
-      </c>
-      <c r="I2" s="9">
-        <v>7</v>
-      </c>
-      <c r="J2" s="9">
-        <v>8</v>
-      </c>
-      <c r="K2" s="9">
-        <v>9</v>
-      </c>
-      <c r="L2" s="9">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="69"/>
-      <c r="B4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="90"/>
-      <c r="B6" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:B7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="27.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20">
-        <v>3</v>
-      </c>
-      <c r="F2" s="20">
-        <v>4</v>
-      </c>
-      <c r="G2" s="20">
-        <v>5</v>
-      </c>
-      <c r="H2" s="20">
-        <v>6</v>
-      </c>
-      <c r="I2" s="20">
-        <v>7</v>
-      </c>
-      <c r="J2" s="20">
-        <v>8</v>
-      </c>
-      <c r="K2" s="20">
-        <v>9</v>
-      </c>
-      <c r="L2" s="20">
-        <v>10</v>
-      </c>
-      <c r="M2" s="57">
-        <v>11</v>
-      </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-    </row>
-    <row r="3" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-    </row>
-    <row r="4" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="69"/>
-      <c r="B4" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-    </row>
-    <row r="5" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-    </row>
-    <row r="6" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="75"/>
-      <c r="B6" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
-      <c r="B9" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
-      <c r="B10" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
-      <c r="B11" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B13" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="99"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C1:M1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>